--- a/artfynd/A 37358-2025 artfynd.xlsx
+++ b/artfynd/A 37358-2025 artfynd.xlsx
@@ -1023,7 +1023,7 @@
         <v>130746898</v>
       </c>
       <c r="B5" t="n">
-        <v>102628</v>
+        <v>102632</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>

--- a/artfynd/A 37358-2025 artfynd.xlsx
+++ b/artfynd/A 37358-2025 artfynd.xlsx
@@ -1023,7 +1023,7 @@
         <v>130746898</v>
       </c>
       <c r="B5" t="n">
-        <v>102632</v>
+        <v>102638</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>

--- a/artfynd/A 37358-2025 artfynd.xlsx
+++ b/artfynd/A 37358-2025 artfynd.xlsx
@@ -1023,7 +1023,7 @@
         <v>130746898</v>
       </c>
       <c r="B5" t="n">
-        <v>102638</v>
+        <v>102640</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
